--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema5a-Plxnb3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema5a-Plxnb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.477188923817327</v>
+        <v>0.4898806666666666</v>
       </c>
       <c r="H2">
-        <v>0.477188923817327</v>
+        <v>1.469642</v>
       </c>
       <c r="I2">
-        <v>0.02009506705291952</v>
+        <v>0.01965582386814743</v>
       </c>
       <c r="J2">
-        <v>0.02009506705291952</v>
+        <v>0.02319449744266509</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.280483509896775</v>
+        <v>0.2951616666666667</v>
       </c>
       <c r="N2">
-        <v>0.280483509896775</v>
+        <v>0.8854850000000001</v>
       </c>
       <c r="O2">
-        <v>0.05608029894734663</v>
+        <v>0.04824641865753034</v>
       </c>
       <c r="P2">
-        <v>0.05608029894734663</v>
+        <v>0.06350182003386917</v>
       </c>
       <c r="Q2">
-        <v>0.1338436242361487</v>
+        <v>0.1445939940411111</v>
       </c>
       <c r="R2">
-        <v>0.1338436242361487</v>
+        <v>1.30134594637</v>
       </c>
       <c r="S2">
-        <v>0.001126937367694703</v>
+        <v>0.0009483231074013182</v>
       </c>
       <c r="T2">
-        <v>0.001126937367694703</v>
+        <v>0.001472892802380157</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +593,55 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.477188923817327</v>
+        <v>0.4898806666666666</v>
       </c>
       <c r="H3">
-        <v>0.477188923817327</v>
+        <v>1.469642</v>
       </c>
       <c r="I3">
-        <v>0.02009506705291952</v>
+        <v>0.01965582386814743</v>
       </c>
       <c r="J3">
-        <v>0.02009506705291952</v>
+        <v>0.02319449744266509</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.623565617752314</v>
+        <v>0.188123</v>
       </c>
       <c r="N3">
-        <v>0.623565617752314</v>
+        <v>0.564369</v>
       </c>
       <c r="O3">
-        <v>0.1246766566409069</v>
+        <v>0.03075013472992963</v>
       </c>
       <c r="P3">
-        <v>0.1246766566409069</v>
+        <v>0.04047325326876763</v>
       </c>
       <c r="Q3">
-        <v>0.2975586060647135</v>
+        <v>0.09215782065533333</v>
       </c>
       <c r="R3">
-        <v>0.2975586060647135</v>
+        <v>0.8294203858979999</v>
       </c>
       <c r="S3">
-        <v>0.00250538577513285</v>
+        <v>0.0006044192321733</v>
       </c>
       <c r="T3">
-        <v>0.00250538577513285</v>
+        <v>0.0009387567694387675</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +655,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.477188923817327</v>
+        <v>0.4898806666666666</v>
       </c>
       <c r="H4">
-        <v>0.477188923817327</v>
+        <v>1.469642</v>
       </c>
       <c r="I4">
-        <v>0.02009506705291952</v>
+        <v>0.01965582386814743</v>
       </c>
       <c r="J4">
-        <v>0.02009506705291952</v>
+        <v>0.02319449744266509</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.09741333174541</v>
+        <v>0.7418906666666666</v>
       </c>
       <c r="N4">
-        <v>4.09741333174541</v>
+        <v>2.225672</v>
       </c>
       <c r="O4">
-        <v>0.8192430444117464</v>
+        <v>0.1212676703798967</v>
       </c>
       <c r="P4">
-        <v>0.8192430444117464</v>
+        <v>0.1596122156766311</v>
       </c>
       <c r="Q4">
-        <v>1.955240258210361</v>
+        <v>0.3634378943804444</v>
       </c>
       <c r="R4">
-        <v>1.955240258210361</v>
+        <v>3.270941049424</v>
       </c>
       <c r="S4">
-        <v>0.01646274391009197</v>
+        <v>0.002383615969887809</v>
       </c>
       <c r="T4">
-        <v>0.01646274391009197</v>
+        <v>0.003702125128329728</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,60 +717,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.0683718616111</v>
+        <v>0.4898806666666666</v>
       </c>
       <c r="H5">
-        <v>12.0683718616111</v>
+        <v>1.469642</v>
       </c>
       <c r="I5">
-        <v>0.5082153622481805</v>
+        <v>0.01965582386814743</v>
       </c>
       <c r="J5">
-        <v>0.5082153622481805</v>
+        <v>0.02319449744266509</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.280483509896775</v>
+        <v>0.483482</v>
       </c>
       <c r="N5">
-        <v>0.280483509896775</v>
+        <v>1.450446</v>
       </c>
       <c r="O5">
-        <v>0.05608029894734663</v>
+        <v>0.07902880902120335</v>
       </c>
       <c r="P5">
-        <v>0.05608029894734663</v>
+        <v>0.104017528090081</v>
       </c>
       <c r="Q5">
-        <v>3.384979298484158</v>
+        <v>0.2368484844813333</v>
       </c>
       <c r="R5">
-        <v>3.384979298484158</v>
+        <v>2.131636360332</v>
       </c>
       <c r="S5">
-        <v>0.02850086944451202</v>
+        <v>0.001553376350630234</v>
       </c>
       <c r="T5">
-        <v>0.02850086944451202</v>
+        <v>0.002412634289277729</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,55 +779,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.0683718616111</v>
+        <v>0.4898806666666666</v>
       </c>
       <c r="H6">
-        <v>12.0683718616111</v>
+        <v>1.469642</v>
       </c>
       <c r="I6">
-        <v>0.5082153622481805</v>
+        <v>0.01965582386814743</v>
       </c>
       <c r="J6">
-        <v>0.5082153622481805</v>
+        <v>0.02319449744266509</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.623565617752314</v>
+        <v>4.409136999999999</v>
       </c>
       <c r="N6">
-        <v>0.623565617752314</v>
+        <v>8.818273999999999</v>
       </c>
       <c r="O6">
-        <v>0.1246766566409069</v>
+        <v>0.72070696721144</v>
       </c>
       <c r="P6">
-        <v>0.1246766566409069</v>
+        <v>0.632395182930651</v>
       </c>
       <c r="Q6">
-        <v>7.52542175515017</v>
+        <v>2.159950972984666</v>
       </c>
       <c r="R6">
-        <v>7.52542175515017</v>
+        <v>12.959705837908</v>
       </c>
       <c r="S6">
-        <v>0.06336259221865055</v>
+        <v>0.01416608920805477</v>
       </c>
       <c r="T6">
-        <v>0.06336259221865055</v>
+        <v>0.01466808845323871</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +841,60 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.0683718616111</v>
+        <v>13.025931</v>
       </c>
       <c r="H7">
-        <v>12.0683718616111</v>
+        <v>39.077793</v>
       </c>
       <c r="I7">
-        <v>0.5082153622481805</v>
+        <v>0.5226485200912362</v>
       </c>
       <c r="J7">
-        <v>0.5082153622481805</v>
+        <v>0.6167418798615554</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.09741333174541</v>
+        <v>0.2951616666666667</v>
       </c>
       <c r="N7">
-        <v>4.09741333174541</v>
+        <v>0.8854850000000001</v>
       </c>
       <c r="O7">
-        <v>0.8192430444117464</v>
+        <v>0.04824641865753034</v>
       </c>
       <c r="P7">
-        <v>0.8192430444117464</v>
+        <v>0.06350182003386917</v>
       </c>
       <c r="Q7">
-        <v>49.4491077582265</v>
+        <v>3.844755503845001</v>
       </c>
       <c r="R7">
-        <v>49.4491077582265</v>
+        <v>34.602799534605</v>
       </c>
       <c r="S7">
-        <v>0.416351900585018</v>
+        <v>0.02521591931106044</v>
       </c>
       <c r="T7">
-        <v>0.416351900585018</v>
+        <v>0.03916423186231865</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,60 +903,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.2010095823474</v>
+        <v>13.025931</v>
       </c>
       <c r="H8">
-        <v>11.2010095823474</v>
+        <v>39.077793</v>
       </c>
       <c r="I8">
-        <v>0.4716895706989001</v>
+        <v>0.5226485200912362</v>
       </c>
       <c r="J8">
-        <v>0.4716895706989001</v>
+        <v>0.6167418798615554</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.280483509896775</v>
+        <v>0.188123</v>
       </c>
       <c r="N8">
-        <v>0.280483509896775</v>
+        <v>0.564369</v>
       </c>
       <c r="O8">
-        <v>0.05608029894734663</v>
+        <v>0.03075013472992963</v>
       </c>
       <c r="P8">
-        <v>0.05608029894734663</v>
+        <v>0.04047325326876763</v>
       </c>
       <c r="Q8">
-        <v>3.141698482044208</v>
+        <v>2.450477217513</v>
       </c>
       <c r="R8">
-        <v>3.141698482044208</v>
+        <v>22.054294957617</v>
       </c>
       <c r="S8">
-        <v>0.02645249213513991</v>
+        <v>0.01607151240920385</v>
       </c>
       <c r="T8">
-        <v>0.02645249213513991</v>
+        <v>0.02496155030509259</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -965,57 +968,57 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.2010095823474</v>
+        <v>13.025931</v>
       </c>
       <c r="H9">
-        <v>11.2010095823474</v>
+        <v>39.077793</v>
       </c>
       <c r="I9">
-        <v>0.4716895706989001</v>
+        <v>0.5226485200912362</v>
       </c>
       <c r="J9">
-        <v>0.4716895706989001</v>
+        <v>0.6167418798615554</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.623565617752314</v>
+        <v>0.7418906666666666</v>
       </c>
       <c r="N9">
-        <v>0.623565617752314</v>
+        <v>2.225672</v>
       </c>
       <c r="O9">
-        <v>0.1246766566409069</v>
+        <v>0.1212676703798967</v>
       </c>
       <c r="P9">
-        <v>0.1246766566409069</v>
+        <v>0.1596122156766311</v>
       </c>
       <c r="Q9">
-        <v>6.984564459666045</v>
+        <v>9.663816633543998</v>
       </c>
       <c r="R9">
-        <v>6.984564459666045</v>
+        <v>86.97434970189599</v>
       </c>
       <c r="S9">
-        <v>0.05880867864712357</v>
+        <v>0.06338036845896486</v>
       </c>
       <c r="T9">
-        <v>0.05880867864712357</v>
+        <v>0.09843953794527346</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1024,55 +1027,427 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>13.025931</v>
+      </c>
+      <c r="H10">
+        <v>39.077793</v>
+      </c>
+      <c r="I10">
+        <v>0.5226485200912362</v>
+      </c>
+      <c r="J10">
+        <v>0.6167418798615554</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.483482</v>
+      </c>
+      <c r="N10">
+        <v>1.450446</v>
+      </c>
+      <c r="O10">
+        <v>0.07902880902120335</v>
+      </c>
+      <c r="P10">
+        <v>0.104017528090081</v>
+      </c>
+      <c r="Q10">
+        <v>6.297803171741999</v>
+      </c>
+      <c r="R10">
+        <v>56.680228545678</v>
+      </c>
+      <c r="S10">
+        <v>0.04130429007950487</v>
+      </c>
+      <c r="T10">
+        <v>0.06415196581282871</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>11.2010095823474</v>
-      </c>
-      <c r="H10">
-        <v>11.2010095823474</v>
-      </c>
-      <c r="I10">
-        <v>0.4716895706989001</v>
-      </c>
-      <c r="J10">
-        <v>0.4716895706989001</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>4.09741333174541</v>
-      </c>
-      <c r="N10">
-        <v>4.09741333174541</v>
-      </c>
-      <c r="O10">
-        <v>0.8192430444117464</v>
-      </c>
-      <c r="P10">
-        <v>0.8192430444117464</v>
-      </c>
-      <c r="Q10">
-        <v>45.89516599171832</v>
-      </c>
-      <c r="R10">
-        <v>45.89516599171832</v>
-      </c>
-      <c r="S10">
-        <v>0.3864283999166366</v>
-      </c>
-      <c r="T10">
-        <v>0.3864283999166366</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>13.025931</v>
+      </c>
+      <c r="H11">
+        <v>39.077793</v>
+      </c>
+      <c r="I11">
+        <v>0.5226485200912362</v>
+      </c>
+      <c r="J11">
+        <v>0.6167418798615554</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.409136999999999</v>
+      </c>
+      <c r="N11">
+        <v>8.818273999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.72070696721144</v>
+      </c>
+      <c r="P11">
+        <v>0.632395182930651</v>
+      </c>
+      <c r="Q11">
+        <v>57.43311433154699</v>
+      </c>
+      <c r="R11">
+        <v>344.5986859892819</v>
+      </c>
+      <c r="S11">
+        <v>0.3766764298325022</v>
+      </c>
+      <c r="T11">
+        <v>0.3900245939360419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>11.4071155</v>
+      </c>
+      <c r="H12">
+        <v>22.814231</v>
+      </c>
+      <c r="I12">
+        <v>0.4576956560406163</v>
+      </c>
+      <c r="J12">
+        <v>0.3600636226957795</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.2951616666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.8854850000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.04824641865753034</v>
+      </c>
+      <c r="P12">
+        <v>0.06350182003386917</v>
+      </c>
+      <c r="Q12">
+        <v>3.366943222839167</v>
+      </c>
+      <c r="R12">
+        <v>20.201659337035</v>
+      </c>
+      <c r="S12">
+        <v>0.02208217623906858</v>
+      </c>
+      <c r="T12">
+        <v>0.02286469536917036</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>11.4071155</v>
+      </c>
+      <c r="H13">
+        <v>22.814231</v>
+      </c>
+      <c r="I13">
+        <v>0.4576956560406163</v>
+      </c>
+      <c r="J13">
+        <v>0.3600636226957795</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.188123</v>
+      </c>
+      <c r="N13">
+        <v>0.564369</v>
+      </c>
+      <c r="O13">
+        <v>0.03075013472992963</v>
+      </c>
+      <c r="P13">
+        <v>0.04047325326876763</v>
+      </c>
+      <c r="Q13">
+        <v>2.1459407892065</v>
+      </c>
+      <c r="R13">
+        <v>12.875644735239</v>
+      </c>
+      <c r="S13">
+        <v>0.01407420308855248</v>
+      </c>
+      <c r="T13">
+        <v>0.01457294619423627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>11.4071155</v>
+      </c>
+      <c r="H14">
+        <v>22.814231</v>
+      </c>
+      <c r="I14">
+        <v>0.4576956560406163</v>
+      </c>
+      <c r="J14">
+        <v>0.3600636226957795</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.7418906666666666</v>
+      </c>
+      <c r="N14">
+        <v>2.225672</v>
+      </c>
+      <c r="O14">
+        <v>0.1212676703798967</v>
+      </c>
+      <c r="P14">
+        <v>0.1596122156766311</v>
+      </c>
+      <c r="Q14">
+        <v>8.462832523038665</v>
+      </c>
+      <c r="R14">
+        <v>50.776995138232</v>
+      </c>
+      <c r="S14">
+        <v>0.05550368595104405</v>
+      </c>
+      <c r="T14">
+        <v>0.05747055260302787</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>11.4071155</v>
+      </c>
+      <c r="H15">
+        <v>22.814231</v>
+      </c>
+      <c r="I15">
+        <v>0.4576956560406163</v>
+      </c>
+      <c r="J15">
+        <v>0.3600636226957795</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.483482</v>
+      </c>
+      <c r="N15">
+        <v>1.450446</v>
+      </c>
+      <c r="O15">
+        <v>0.07902880902120335</v>
+      </c>
+      <c r="P15">
+        <v>0.104017528090081</v>
+      </c>
+      <c r="Q15">
+        <v>5.515135016171</v>
+      </c>
+      <c r="R15">
+        <v>33.09081009702599</v>
+      </c>
+      <c r="S15">
+        <v>0.03617114259106825</v>
+      </c>
+      <c r="T15">
+        <v>0.03745292798797458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>11.4071155</v>
+      </c>
+      <c r="H16">
+        <v>22.814231</v>
+      </c>
+      <c r="I16">
+        <v>0.4576956560406163</v>
+      </c>
+      <c r="J16">
+        <v>0.3600636226957795</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.409136999999999</v>
+      </c>
+      <c r="N16">
+        <v>8.818273999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.72070696721144</v>
+      </c>
+      <c r="P16">
+        <v>0.632395182930651</v>
+      </c>
+      <c r="Q16">
+        <v>50.29553501432349</v>
+      </c>
+      <c r="R16">
+        <v>201.182140057294</v>
+      </c>
+      <c r="S16">
+        <v>0.329864448170883</v>
+      </c>
+      <c r="T16">
+        <v>0.2277025005413704</v>
       </c>
     </row>
   </sheetData>
